--- a/calibration/TC_offset.xlsx
+++ b/calibration/TC_offset.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="TC_offset_cal1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Temp</t>
   </si>
@@ -116,13 +116,85 @@
   </si>
   <si>
     <t>HFS4TC</t>
+  </si>
+  <si>
+    <t>TF9603</t>
+  </si>
+  <si>
+    <t>TF9604</t>
+  </si>
+  <si>
+    <t>TF9605</t>
+  </si>
+  <si>
+    <t>TF9606</t>
+  </si>
+  <si>
+    <t>TF9607</t>
+  </si>
+  <si>
+    <t>TF9608</t>
+  </si>
+  <si>
+    <t>TF9609</t>
+  </si>
+  <si>
+    <t>TF9610</t>
+  </si>
+  <si>
+    <t>TF9611</t>
+  </si>
+  <si>
+    <t>TF9612</t>
+  </si>
+  <si>
+    <t>TF9613</t>
+  </si>
+  <si>
+    <t>TF9614</t>
+  </si>
+  <si>
+    <t>TCH1_1F</t>
+  </si>
+  <si>
+    <t>TCH1_2W</t>
+  </si>
+  <si>
+    <t>TCH1_3W</t>
+  </si>
+  <si>
+    <t>TCH2_1F</t>
+  </si>
+  <si>
+    <t>TCH2_2W</t>
+  </si>
+  <si>
+    <t>TCH2_3W</t>
+  </si>
+  <si>
+    <t>TCH3_1F</t>
+  </si>
+  <si>
+    <t>TCH3_2W</t>
+  </si>
+  <si>
+    <t>TCH3_3W</t>
+  </si>
+  <si>
+    <t>TCH4_1F</t>
+  </si>
+  <si>
+    <t>TCH4_2W</t>
+  </si>
+  <si>
+    <t>TCH4_3W</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +330,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -556,7 +636,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -599,15 +679,36 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -645,6 +746,7 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="42"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -948,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH8"/>
+  <dimension ref="A1:BF8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,7 +1066,7 @@
     <col min="21" max="22" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1067,8 +1169,80 @@
       <c r="AH1" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>24</v>
       </c>
@@ -1160,19 +1334,116 @@
         <v>-0.20839949799999999</v>
       </c>
       <c r="AE2" s="4">
-        <v>-0.44362552157315344</v>
+        <f>AV2</f>
+        <v>-1.9999999999998866E-2</v>
       </c>
       <c r="AF2" s="4">
-        <v>-0.48073527839317365</v>
+        <f>AY2</f>
+        <v>-8.999999999999915E-2</v>
       </c>
       <c r="AG2" s="4">
-        <v>-0.57520539795706549</v>
+        <f>BB2</f>
+        <v>-9.9999999999997161E-2</v>
       </c>
       <c r="AH2" s="4">
-        <v>-0.4232882985517013</v>
+        <f>BE2</f>
+        <v>-6.9999999999996024E-2</v>
+      </c>
+      <c r="AI2" s="5">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AJ2">
+        <v>-0.09</v>
+      </c>
+      <c r="AK2">
+        <f>AK3-0.05</f>
+        <v>-6.9999999999996024E-2</v>
+      </c>
+      <c r="AL2" s="4">
+        <f t="shared" ref="AL2:AR2" si="0">AL3-0.05</f>
+        <v>-0.11000000000000228</v>
+      </c>
+      <c r="AM2" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999997161E-2</v>
+      </c>
+      <c r="AN2" s="4">
+        <f t="shared" si="0"/>
+        <v>-4.0000000000001992E-2</v>
+      </c>
+      <c r="AO2" s="4">
+        <f t="shared" si="0"/>
+        <v>-7.0000000000003129E-2</v>
+      </c>
+      <c r="AP2" s="4">
+        <f t="shared" si="0"/>
+        <v>-8.000000000000114E-2</v>
+      </c>
+      <c r="AQ2" s="4">
+        <f t="shared" si="0"/>
+        <v>-5.9999999999998013E-2</v>
+      </c>
+      <c r="AR2" s="4">
+        <f t="shared" si="0"/>
+        <v>-6.0000000000000005E-2</v>
+      </c>
+      <c r="AS2" s="15">
+        <v>-5.9999999999998721E-2</v>
+      </c>
+      <c r="AT2">
+        <f>AT3-0.05</f>
+        <v>-1.9999999999998866E-2</v>
+      </c>
+      <c r="AU2">
+        <f>AI2</f>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AV2">
+        <f>AV3-0.05</f>
+        <v>-1.9999999999998866E-2</v>
+      </c>
+      <c r="AW2" s="4">
+        <f>AW3-0.05</f>
+        <v>-0.11000000000000228</v>
+      </c>
+      <c r="AX2">
+        <f>AK2</f>
+        <v>-6.9999999999996024E-2</v>
+      </c>
+      <c r="AY2">
+        <f>AY3-0.05</f>
+        <v>-8.999999999999915E-2</v>
+      </c>
+      <c r="AZ2" s="4">
+        <f>AZ3-0.05</f>
+        <v>-5.9999999999998013E-2</v>
+      </c>
+      <c r="BA2">
+        <f>AN2</f>
+        <v>-4.0000000000001992E-2</v>
+      </c>
+      <c r="BB2">
+        <f>BB3-0.05</f>
+        <v>-9.9999999999997161E-2</v>
+      </c>
+      <c r="BC2" s="4">
+        <f>BC3-0.05</f>
+        <v>-9.0000000000006256E-2</v>
+      </c>
+      <c r="BD2">
+        <f>AQ2</f>
+        <v>-5.9999999999998013E-2</v>
+      </c>
+      <c r="BE2">
+        <f>BE3-0.05</f>
+        <v>-6.9999999999996024E-2</v>
+      </c>
+      <c r="BF2" s="4">
+        <f>BF3-0.05</f>
+        <v>-5.9999999999998013E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>50</v>
       </c>
@@ -1264,19 +1535,99 @@
         <v>-0.26961392099999998</v>
       </c>
       <c r="AE3" s="4">
-        <v>-0.41727397702493568</v>
+        <f t="shared" ref="AE3:AE8" si="1">AV3</f>
+        <v>3.0000000000001137E-2</v>
       </c>
       <c r="AF3" s="4">
-        <v>-0.50115992165233103</v>
+        <f t="shared" ref="AF3:AF8" si="2">AY3</f>
+        <v>-3.9999999999999147E-2</v>
       </c>
       <c r="AG3" s="4">
-        <v>-0.55519878643421083</v>
+        <f t="shared" ref="AG3:AG8" si="3">BB3</f>
+        <v>-4.9999999999997158E-2</v>
       </c>
       <c r="AH3" s="4">
-        <v>-0.41853067125947924</v>
+        <f t="shared" ref="AH3:AH8" si="4">BE3</f>
+        <v>-1.9999999999996021E-2</v>
+      </c>
+      <c r="AI3" s="5">
+        <v>-3.0000000000001137E-2</v>
+      </c>
+      <c r="AJ3" s="6">
+        <v>-3.9999999999999147E-2</v>
+      </c>
+      <c r="AK3" s="7">
+        <v>-1.9999999999996021E-2</v>
+      </c>
+      <c r="AL3" s="8">
+        <v>-6.0000000000002274E-2</v>
+      </c>
+      <c r="AM3" s="9">
+        <v>-4.9999999999997158E-2</v>
+      </c>
+      <c r="AN3" s="10">
+        <v>9.9999999999980105E-3</v>
+      </c>
+      <c r="AO3" s="11">
+        <v>-2.0000000000003126E-2</v>
+      </c>
+      <c r="AP3" s="12">
+        <v>-3.0000000000001137E-2</v>
+      </c>
+      <c r="AQ3" s="13">
+        <v>-9.9999999999980105E-3</v>
+      </c>
+      <c r="AR3" s="14">
+        <v>-0.01</v>
+      </c>
+      <c r="AS3" s="15">
+        <v>9.9999999999980105E-3</v>
+      </c>
+      <c r="AT3" s="16">
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="AU3" s="4">
+        <f t="shared" ref="AU3:AU8" si="5">AI3</f>
+        <v>-3.0000000000001137E-2</v>
+      </c>
+      <c r="AV3" s="17">
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="AW3" s="18">
+        <v>-6.0000000000002274E-2</v>
+      </c>
+      <c r="AX3" s="4">
+        <f t="shared" ref="AX3:AX8" si="6">AK3</f>
+        <v>-1.9999999999996021E-2</v>
+      </c>
+      <c r="AY3" s="19">
+        <v>-3.9999999999999147E-2</v>
+      </c>
+      <c r="AZ3" s="20">
+        <v>-9.9999999999980105E-3</v>
+      </c>
+      <c r="BA3" s="4">
+        <f t="shared" ref="BA3:BA8" si="7">AN3</f>
+        <v>9.9999999999980105E-3</v>
+      </c>
+      <c r="BB3" s="21">
+        <v>-4.9999999999997158E-2</v>
+      </c>
+      <c r="BC3" s="22">
+        <v>-4.0000000000006253E-2</v>
+      </c>
+      <c r="BD3" s="4">
+        <f t="shared" ref="BD3:BD8" si="8">AQ3</f>
+        <v>-9.9999999999980105E-3</v>
+      </c>
+      <c r="BE3" s="23">
+        <v>-1.9999999999996021E-2</v>
+      </c>
+      <c r="BF3" s="24">
+        <v>-9.9999999999980105E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>75</v>
       </c>
@@ -1368,19 +1719,99 @@
         <v>-0.36447245299999997</v>
       </c>
       <c r="AE4" s="4">
-        <v>-0.22270827152027828</v>
+        <f t="shared" si="1"/>
+        <v>0.10999999999999943</v>
       </c>
       <c r="AF4" s="4">
-        <v>-0.38568301860905502</v>
+        <f t="shared" si="2"/>
+        <v>7.000000000000739E-2</v>
       </c>
       <c r="AG4" s="4">
-        <v>-0.40329167080406386</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="AH4" s="4">
-        <v>-0.28434210764139656</v>
+        <f t="shared" si="4"/>
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="AI4" s="5">
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="AJ4" s="6">
+        <v>4.9999999999997158E-2</v>
+      </c>
+      <c r="AK4" s="7">
+        <v>7.9999999999998295E-2</v>
+      </c>
+      <c r="AL4" s="8">
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="AM4" s="9">
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="AN4" s="10">
+        <v>4.0000000000006253E-2</v>
+      </c>
+      <c r="AO4" s="11">
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="AP4" s="12">
+        <v>6.9999999999993179E-2</v>
+      </c>
+      <c r="AQ4" s="13">
+        <v>6.0000000000002274E-2</v>
+      </c>
+      <c r="AR4" s="14">
+        <v>4.0000000000006253E-2</v>
+      </c>
+      <c r="AS4" s="15">
+        <v>4.0000000000006253E-2</v>
+      </c>
+      <c r="AT4" s="16">
+        <v>7.9999999999998295E-2</v>
+      </c>
+      <c r="AU4" s="4">
+        <f t="shared" si="5"/>
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="AV4" s="17">
+        <v>0.10999999999999943</v>
+      </c>
+      <c r="AW4" s="18">
+        <v>4.0000000000006253E-2</v>
+      </c>
+      <c r="AX4" s="4">
+        <f t="shared" si="6"/>
+        <v>7.9999999999998295E-2</v>
+      </c>
+      <c r="AY4" s="19">
+        <v>7.000000000000739E-2</v>
+      </c>
+      <c r="AZ4" s="20">
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="BA4" s="4">
+        <f t="shared" si="7"/>
+        <v>4.0000000000006253E-2</v>
+      </c>
+      <c r="BB4" s="21">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="22">
+        <v>4.9999999999997158E-2</v>
+      </c>
+      <c r="BD4" s="4">
+        <f t="shared" si="8"/>
+        <v>6.0000000000002274E-2</v>
+      </c>
+      <c r="BE4" s="23">
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="BF4" s="24">
+        <v>7.9999999999998295E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>85</v>
       </c>
@@ -1472,19 +1903,99 @@
         <v>-0.47479179500000002</v>
       </c>
       <c r="AE5" s="4">
-        <v>-0.26723437947937989</v>
+        <f t="shared" si="1"/>
+        <v>0.14999999999999147</v>
       </c>
       <c r="AF5" s="4">
-        <v>-0.42219379442388411</v>
+        <f t="shared" si="2"/>
+        <v>9.9999999999994316E-2</v>
       </c>
       <c r="AG5" s="4">
-        <v>-0.4648458486903802</v>
+        <f t="shared" si="3"/>
+        <v>4.9999999999997158E-2</v>
       </c>
       <c r="AH5" s="4">
-        <v>-0.32860872950698444</v>
+        <f t="shared" si="4"/>
+        <v>0.10999999999999943</v>
+      </c>
+      <c r="AI5" s="5">
+        <v>9.0000000000003411E-2</v>
+      </c>
+      <c r="AJ5" s="6">
+        <v>6.0000000000002274E-2</v>
+      </c>
+      <c r="AK5" s="7">
+        <v>0.20000000000000284</v>
+      </c>
+      <c r="AL5" s="8">
+        <v>9.0000000000003411E-2</v>
+      </c>
+      <c r="AM5" s="9">
+        <v>4.9999999999997158E-2</v>
+      </c>
+      <c r="AN5" s="10">
+        <v>0.12000000000000455</v>
+      </c>
+      <c r="AO5" s="11">
+        <v>9.9999999999994316E-2</v>
+      </c>
+      <c r="AP5" s="12">
+        <v>0.10999999999999943</v>
+      </c>
+      <c r="AQ5" s="13">
+        <v>0.15000000000000568</v>
+      </c>
+      <c r="AR5" s="14">
+        <v>0.12000000000000455</v>
+      </c>
+      <c r="AS5" s="15">
+        <v>4.0000000000006253E-2</v>
+      </c>
+      <c r="AT5" s="16">
+        <v>7.9999999999998295E-2</v>
+      </c>
+      <c r="AU5" s="4">
+        <f t="shared" si="5"/>
+        <v>9.0000000000003411E-2</v>
+      </c>
+      <c r="AV5" s="17">
+        <v>0.14999999999999147</v>
+      </c>
+      <c r="AW5" s="18">
+        <v>6.0000000000002274E-2</v>
+      </c>
+      <c r="AX5" s="4">
+        <f t="shared" si="6"/>
+        <v>0.20000000000000284</v>
+      </c>
+      <c r="AY5" s="19">
+        <v>9.9999999999994316E-2</v>
+      </c>
+      <c r="AZ5" s="20">
+        <v>0.14000000000000057</v>
+      </c>
+      <c r="BA5" s="4">
+        <f t="shared" si="7"/>
+        <v>0.12000000000000455</v>
+      </c>
+      <c r="BB5" s="21">
+        <v>4.9999999999997158E-2</v>
+      </c>
+      <c r="BC5" s="22">
+        <v>0.10999999999999943</v>
+      </c>
+      <c r="BD5" s="4">
+        <f t="shared" si="8"/>
+        <v>0.15000000000000568</v>
+      </c>
+      <c r="BE5" s="23">
+        <v>0.10999999999999943</v>
+      </c>
+      <c r="BF5" s="24">
+        <v>0.10999999999999943</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>120</v>
       </c>
@@ -1576,19 +2087,99 @@
         <v>-0.74877346499999997</v>
       </c>
       <c r="AE6" s="4">
-        <v>-0.32847110832804821</v>
+        <f t="shared" si="1"/>
+        <v>0.52000000000001023</v>
       </c>
       <c r="AF6" s="4">
-        <v>-0.60051767361399278</v>
+        <f t="shared" si="2"/>
+        <v>0.37999999999999545</v>
       </c>
       <c r="AG6" s="4">
-        <v>-0.57989621902488997</v>
+        <f t="shared" si="3"/>
+        <v>0.37000000000000455</v>
       </c>
       <c r="AH6" s="4">
-        <v>-0.48748782316216599</v>
+        <f t="shared" si="4"/>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="AI6" s="5">
+        <v>0.37000000000000455</v>
+      </c>
+      <c r="AJ6" s="6">
+        <v>0.34999999999999432</v>
+      </c>
+      <c r="AK6" s="7">
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="AL6" s="8">
+        <v>0.40000000000000568</v>
+      </c>
+      <c r="AM6" s="9">
+        <v>0.35000000000000853</v>
+      </c>
+      <c r="AN6" s="10">
+        <v>0.35999999999999943</v>
+      </c>
+      <c r="AO6" s="11">
+        <v>0.43000000000000682</v>
+      </c>
+      <c r="AP6" s="12">
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="AQ6" s="13">
+        <v>0.45000000000000284</v>
+      </c>
+      <c r="AR6" s="14">
+        <v>0.39000000000000057</v>
+      </c>
+      <c r="AS6" s="15">
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="AT6" s="16">
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="AU6" s="4">
+        <f t="shared" si="5"/>
+        <v>0.37000000000000455</v>
+      </c>
+      <c r="AV6" s="17">
+        <v>0.52000000000001023</v>
+      </c>
+      <c r="AW6" s="18">
+        <v>0.40000000000000568</v>
+      </c>
+      <c r="AX6" s="4">
+        <f t="shared" si="6"/>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="AY6" s="19">
+        <v>0.37999999999999545</v>
+      </c>
+      <c r="AZ6" s="20">
+        <v>0.44000000000001194</v>
+      </c>
+      <c r="BA6" s="4">
+        <f t="shared" si="7"/>
+        <v>0.35999999999999943</v>
+      </c>
+      <c r="BB6" s="21">
+        <v>0.37000000000000455</v>
+      </c>
+      <c r="BC6" s="22">
+        <v>0.45999999999999375</v>
+      </c>
+      <c r="BD6" s="4">
+        <f t="shared" si="8"/>
+        <v>0.45000000000000284</v>
+      </c>
+      <c r="BE6" s="23">
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="BF6" s="24">
+        <v>0.45999999999999375</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>150</v>
       </c>
@@ -1680,19 +2271,99 @@
         <v>-1.017462112</v>
       </c>
       <c r="AE7" s="4">
-        <v>-0.40245903541767514</v>
+        <f t="shared" si="1"/>
+        <v>0.69999999999998863</v>
       </c>
       <c r="AF7" s="4">
-        <v>-0.72509684658894513</v>
+        <f t="shared" si="2"/>
+        <v>0.54000000000002046</v>
       </c>
       <c r="AG7" s="4">
-        <v>-0.66125630120471524</v>
+        <f t="shared" si="3"/>
+        <v>0.49000000000000909</v>
       </c>
       <c r="AH7" s="4">
-        <v>-0.60188155101674867</v>
+        <f t="shared" si="4"/>
+        <v>0.56999999999999318</v>
+      </c>
+      <c r="AI7" s="5">
+        <v>0.50999999999999091</v>
+      </c>
+      <c r="AJ7" s="6">
+        <v>0.52000000000001023</v>
+      </c>
+      <c r="AK7" s="7">
+        <v>0.59999999999999432</v>
+      </c>
+      <c r="AL7" s="8">
+        <v>0.53999999999999204</v>
+      </c>
+      <c r="AM7" s="9">
+        <v>0.43000000000000682</v>
+      </c>
+      <c r="AN7" s="10">
+        <v>0.52000000000001023</v>
+      </c>
+      <c r="AO7" s="11">
+        <v>0.55000000000001137</v>
+      </c>
+      <c r="AP7" s="12">
+        <v>0.53000000000000114</v>
+      </c>
+      <c r="AQ7" s="13">
+        <v>0.60000000000002274</v>
+      </c>
+      <c r="AR7" s="14">
+        <v>0.50999999999999091</v>
+      </c>
+      <c r="AS7" s="15">
+        <v>0.37999999999999545</v>
+      </c>
+      <c r="AT7" s="16">
+        <v>0.52000000000001023</v>
+      </c>
+      <c r="AU7" s="4">
+        <f t="shared" si="5"/>
+        <v>0.50999999999999091</v>
+      </c>
+      <c r="AV7" s="17">
+        <v>0.69999999999998863</v>
+      </c>
+      <c r="AW7" s="18">
+        <v>0.49000000000000909</v>
+      </c>
+      <c r="AX7" s="4">
+        <f t="shared" si="6"/>
+        <v>0.59999999999999432</v>
+      </c>
+      <c r="AY7" s="19">
+        <v>0.54000000000002046</v>
+      </c>
+      <c r="AZ7" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="BA7" s="4">
+        <f t="shared" si="7"/>
+        <v>0.52000000000001023</v>
+      </c>
+      <c r="BB7" s="21">
+        <v>0.49000000000000909</v>
+      </c>
+      <c r="BC7" s="22">
+        <v>0.55000000000001137</v>
+      </c>
+      <c r="BD7" s="4">
+        <f t="shared" si="8"/>
+        <v>0.60000000000002274</v>
+      </c>
+      <c r="BE7" s="23">
+        <v>0.56999999999999318</v>
+      </c>
+      <c r="BF7" s="24">
+        <v>0.56999999999999318</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>180</v>
       </c>
@@ -1784,16 +2455,96 @@
         <v>-0.767644294</v>
       </c>
       <c r="AE8" s="4">
-        <v>3.5284009457178224E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.3200000000000216</v>
       </c>
       <c r="AF8" s="4">
-        <v>-0.31448694863748938</v>
+        <f t="shared" si="2"/>
+        <v>0.21999999999999886</v>
       </c>
       <c r="AG8" s="4">
-        <v>-0.23766839328187359</v>
+        <f t="shared" si="3"/>
+        <v>0.12999999999999545</v>
       </c>
       <c r="AH8" s="4">
-        <v>-0.14789034132919399</v>
+        <f t="shared" si="4"/>
+        <v>0.21000000000000796</v>
+      </c>
+      <c r="AI8" s="5">
+        <v>0.16999999999998749</v>
+      </c>
+      <c r="AJ8" s="6">
+        <v>9.0000000000003411E-2</v>
+      </c>
+      <c r="AK8" s="7">
+        <v>0.24000000000000909</v>
+      </c>
+      <c r="AL8" s="8">
+        <v>0.18000000000000682</v>
+      </c>
+      <c r="AM8" s="9">
+        <v>9.9999999999994316E-2</v>
+      </c>
+      <c r="AN8" s="10">
+        <v>0.18999999999999773</v>
+      </c>
+      <c r="AO8" s="11">
+        <v>0.21000000000000796</v>
+      </c>
+      <c r="AP8" s="12">
+        <v>0.21000000000000796</v>
+      </c>
+      <c r="AQ8" s="13">
+        <v>0.25999999999999091</v>
+      </c>
+      <c r="AR8" s="14">
+        <v>0.18000000000000682</v>
+      </c>
+      <c r="AS8" s="15">
+        <v>3.9999999999992042E-2</v>
+      </c>
+      <c r="AT8" s="16">
+        <v>0.15000000000000568</v>
+      </c>
+      <c r="AU8" s="4">
+        <f t="shared" si="5"/>
+        <v>0.16999999999998749</v>
+      </c>
+      <c r="AV8" s="17">
+        <v>0.3200000000000216</v>
+      </c>
+      <c r="AW8" s="18">
+        <v>0.18000000000000682</v>
+      </c>
+      <c r="AX8" s="4">
+        <f t="shared" si="6"/>
+        <v>0.24000000000000909</v>
+      </c>
+      <c r="AY8" s="19">
+        <v>0.21999999999999886</v>
+      </c>
+      <c r="AZ8" s="20">
+        <v>0.13999999999998636</v>
+      </c>
+      <c r="BA8" s="4">
+        <f t="shared" si="7"/>
+        <v>0.18999999999999773</v>
+      </c>
+      <c r="BB8" s="21">
+        <v>0.12999999999999545</v>
+      </c>
+      <c r="BC8" s="22">
+        <v>0.21000000000000796</v>
+      </c>
+      <c r="BD8" s="4">
+        <f t="shared" si="8"/>
+        <v>0.25999999999999091</v>
+      </c>
+      <c r="BE8" s="23">
+        <v>0.21000000000000796</v>
+      </c>
+      <c r="BF8" s="24">
+        <v>0.20000000000001705</v>
       </c>
     </row>
   </sheetData>
